--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pauldawson/Desktop/development/funky-spreadsheet-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{198158E3-013B-E847-A737-9A671F2701ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1994B8AD-3A5A-9640-9E17-89B3EEB743EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{BF88B243-FB9B-1246-8726-7BC6AB377249}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="93">
   <si>
     <t>CC_1_RAWTOHEX__UUID__</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>d3bxschxt4niqn.cloudfront.net</t>
+  </si>
+  <si>
+    <t>google.com</t>
   </si>
 </sst>
 </file>
@@ -694,13 +697,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CE3B63-7973-254B-A7D9-2657A67FFD7D}">
-  <dimension ref="A1:BJ4"/>
+  <dimension ref="A1:BJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1409,6 +1415,179 @@
         <v>1</v>
       </c>
       <c r="BG4">
+        <v>50619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5">
+        <v>9357631</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5">
+        <v>9357631</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>9358034</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ5">
+        <v>9358034</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW5">
+        <v>35032001</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ5">
+        <v>4921569</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC5">
+        <v>35016742</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG5">
         <v>50619</v>
       </c>
     </row>
@@ -1429,6 +1608,11 @@
     <hyperlink ref="AY4" r:id="rId13" display="mailto:sudipt.d.sarkar@hsbc.co.in" xr:uid="{ACFEC149-83D1-C046-AA0F-CAA7BAC8E170}"/>
     <hyperlink ref="BB4" r:id="rId14" display="mailto:dominicparsons@hsbc.com" xr:uid="{EF2AA18E-49F7-954D-B1AE-871178400735}"/>
     <hyperlink ref="BE4" r:id="rId15" display="mailto:jimmy.k.c.mak@hsbc.com.hk" xr:uid="{591CDB83-736D-454C-947B-6B96745CB9E1}"/>
+    <hyperlink ref="G5" r:id="rId16" display="http://d3bxschxt4niqn.cloudfront.net/" xr:uid="{EB89FB51-6902-AA4D-980E-033B4CD33478}"/>
+    <hyperlink ref="AY5" r:id="rId17" display="mailto:sudipt.d.sarkar@hsbc.co.in" xr:uid="{1E7CDE72-F2F3-114D-8265-458F4EB2516F}"/>
+    <hyperlink ref="BB5" r:id="rId18" display="mailto:dominicparsons@hsbc.com" xr:uid="{C8D8676E-6C93-5C4E-A1ED-A1CA8C0DB3E6}"/>
+    <hyperlink ref="BE5" r:id="rId19" display="mailto:jimmy.k.c.mak@hsbc.com.hk" xr:uid="{2F7DD92B-D260-0040-B544-A0781327F427}"/>
+    <hyperlink ref="B5" r:id="rId20" display="www.google.com" xr:uid="{C6D39F82-7305-DE4F-82BE-C49CC35EE049}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pauldawson/Desktop/development/funky-spreadsheet-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1994B8AD-3A5A-9640-9E17-89B3EEB743EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B56A22D-8EB9-2B4B-A9E7-B23328FCD352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20380" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{BF88B243-FB9B-1246-8726-7BC6AB377249}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="96">
   <si>
     <t>CC_1_RAWTOHEX__UUID__</t>
   </si>
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t>google.com</t>
+  </si>
+  <si>
+    <t>microsoft.com</t>
+  </si>
+  <si>
+    <t>FF5AD68E11B81949E05375690F803E90</t>
+  </si>
+  <si>
+    <t>akamai.com</t>
   </si>
 </sst>
 </file>
@@ -697,14 +706,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CE3B63-7973-254B-A7D9-2657A67FFD7D}">
-  <dimension ref="A1:BJ5"/>
+  <dimension ref="A1:BJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1588,6 +1598,352 @@
         <v>1</v>
       </c>
       <c r="BG5">
+        <v>50619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6">
+        <v>9357631</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6">
+        <v>9357631</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>9358034</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" t="s">
+        <v>74</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ6">
+        <v>9358034</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW6">
+        <v>35032001</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ6">
+        <v>4921569</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC6">
+        <v>35016742</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>50619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <v>9357631</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7">
+        <v>9357631</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>9358034</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7" t="s">
+        <v>74</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ7">
+        <v>9358034</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW7">
+        <v>35032001</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ7">
+        <v>4921569</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC7">
+        <v>35016742</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BG7">
         <v>50619</v>
       </c>
     </row>
@@ -1613,6 +1969,16 @@
     <hyperlink ref="BB5" r:id="rId18" display="mailto:dominicparsons@hsbc.com" xr:uid="{C8D8676E-6C93-5C4E-A1ED-A1CA8C0DB3E6}"/>
     <hyperlink ref="BE5" r:id="rId19" display="mailto:jimmy.k.c.mak@hsbc.com.hk" xr:uid="{2F7DD92B-D260-0040-B544-A0781327F427}"/>
     <hyperlink ref="B5" r:id="rId20" display="www.google.com" xr:uid="{C6D39F82-7305-DE4F-82BE-C49CC35EE049}"/>
+    <hyperlink ref="G6" r:id="rId21" display="http://d3bxschxt4niqn.cloudfront.net/" xr:uid="{AE255065-9747-E540-B072-2B913350AFE5}"/>
+    <hyperlink ref="AY6" r:id="rId22" display="mailto:sudipt.d.sarkar@hsbc.co.in" xr:uid="{FDC6D3DA-605A-AC4D-B13E-7D709F967F20}"/>
+    <hyperlink ref="BB6" r:id="rId23" display="mailto:dominicparsons@hsbc.com" xr:uid="{8D4CDFC4-C002-E847-8FF8-DB60D5B9F230}"/>
+    <hyperlink ref="BE6" r:id="rId24" display="mailto:jimmy.k.c.mak@hsbc.com.hk" xr:uid="{D8F5DAC1-8CA5-344E-BFD8-918AE83D2E15}"/>
+    <hyperlink ref="B6" r:id="rId25" display="www.google.com" xr:uid="{0E408364-F309-A04E-8D14-90F8D0951EF5}"/>
+    <hyperlink ref="G7" r:id="rId26" display="http://d3bxschxt4niqn.cloudfront.net/" xr:uid="{C2E90662-9BE3-2743-8A9B-5F924DD13ACF}"/>
+    <hyperlink ref="AY7" r:id="rId27" display="mailto:sudipt.d.sarkar@hsbc.co.in" xr:uid="{2C4D5EA6-AAB9-A04F-9505-508F9050B8C5}"/>
+    <hyperlink ref="BB7" r:id="rId28" display="mailto:dominicparsons@hsbc.com" xr:uid="{B5948727-498A-444F-A8F3-B573BCEAD9E9}"/>
+    <hyperlink ref="BE7" r:id="rId29" display="mailto:jimmy.k.c.mak@hsbc.com.hk" xr:uid="{696319F6-EDA9-0340-BB74-A3D1E3A9DBE4}"/>
+    <hyperlink ref="B7" r:id="rId30" display="www.google.com" xr:uid="{9B5F7392-A2F3-9846-9605-FD8220D3773D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
